--- a/Excel_files/Notes_final.xlsx
+++ b/Excel_files/Notes_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Application-Gestion-Note\App-Gestion-Notes\Excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06B85C7-BE04-47F7-8430-0D911161B474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398296FF-2024-40F8-9940-7DA66345BCD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4356" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
